--- a/sactemporal_batch3.xlsx
+++ b/sactemporal_batch3.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L1_sactemporal" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2_sactemporal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shu_L1_sactemporal" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shu_L2_sactemporal" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9320,4 +9322,8906 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>net_4400</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>net_4401</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>net_4402</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>net_4403</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>net_4410</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>net_4411</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>net_4412</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_4413</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>net_4420</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>net_4421</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>net_4422</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>net_4423</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>net_4430</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>net_4431</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>net_4432</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_4433</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.003198329793893291</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0008666861114698414</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00163685208458304</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.006689654471252499</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.002568190922361146</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0002149079377089289</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.002294431806714354</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.000963755183411131</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.004282779357532086</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.824228915098352e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.001690328610301762</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003971552134089193</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.001079124976569938</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.004989181484862588</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-2.293887927725296e-05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0006082156126454812</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0005914106017152044</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.0006553999134368381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.001027199329642137</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.0003074290516881067</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000177630105419111</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.0008054532659135323</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0002709379155697256</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.169576612783109e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0009655521231999212</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.0004830127230360091</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.0004643627977382418</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0008756524546602683</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.000489058812630777</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0007167424706880055</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.0006314628777785694</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-4.769836445667097e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.0001937515323528298</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0005925930472207834</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.0002863841250125969</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0009153137533627069</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0006497724586304564</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.0008134920721892693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.000317398192548208</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.0003296735778683839</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0001498861815540584</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003600583951525654</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.000290936546908919</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.001486033981524946</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.0009532708641002171</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001452108060095211</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.001194177284526255</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.0004972960408652384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0004971671087380022</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.0007006452452333499</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.000456714464369807</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.0006808792647875116</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0005231413595352149</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.0003829149770277005</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003025543839636392</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0009704892671842282</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0005325087302787347</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000301140030072449</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.0003876248273777225</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0002915894462798322</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.001281668101246127</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0004955978412386783</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.001298535631186976</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0001623614164019373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-8.480059169636932e-05</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.000779730020666413</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001698351644621039</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0004679938388422891</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0002514260091583905</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0004592361477633803</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.0009519828375214309</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-9.71802998463998e-05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001164036825228248</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0006943002377095945</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0004236512874953747</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0002413060433897368</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0004231791094074177</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.001928910733801261</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.0002896808690683392</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.0004759920087329936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.081826368445902e-05</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.0004610713722875518</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0007872373392225859</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0002736677181696321</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0006084462686220921</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.0001623059389345075</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.0001821532369165071</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.000406368263872202</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0001985422294278215</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0008243793940964552</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0003660866714124862</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.946721968665624e-05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.0001776306255037479</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0003328524165507614</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.0007900602016770607</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-8.351274117279539e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.0002412360192036228</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.001017652944052216</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0004751335345176241</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0003559954455797351</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.0009188616437660987</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.0003493665190863815</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.0009838234706126372</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.0004120859334868548</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.0009556891151990028</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.001170723383756763</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.0003657767926570501</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.001019270192661755</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0006389805361791504</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.083187751839235e-05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.00139413736021419</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0003461008243944892</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.555541586450072e-05</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.0004987034727138551</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0008514438005645416</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0003428149883343996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0002891373955291006</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-8.53573709520105e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.0005930667696378895</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001152798876048343</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.000147375682661198</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.0006004197349780962</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.001697342365777467</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0004251508488552751</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.0004619899367359576</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0004015325590005306</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.001170500246998815</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.0001990485163044219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.0002859018853750209</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0001491700992008423</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0002528066941867666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.32220676771749e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0005074617105155495</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0006069968270602365</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0005217882760588902</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-5.502444513744007e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.0008656153010196738</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.0008663319227301888</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.0005636432595973341</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.0001181847075107119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.0001479111887836854</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0002691963247788939</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.001161529549023556</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.953389854994534e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.0006440517369623044</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001598657666283524</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.345927189774489e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-7.835351317540489e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001246699501121245</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0002120122361802539</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0004880433796761667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.000119157886670962</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0003514979036517947</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004165336677837043</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.0008730901211345162</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.0003696835869296836</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0006164439527179351</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00059981577293965</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.0004308674584021014</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0001200200278072808</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.007966829089323942</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01236365591818129</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01106465801375471</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.008900255963625189</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.006455549026331178</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.006804277863294476</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.009130242521346886</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01706513170026937</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01522747305822697</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02266758378665309</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.01300143361628755</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.006308012193299659</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.007812047619947289</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.008256802409749037</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01963182723897068</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.004166623825113787</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.008245364416603276</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.009167004125639663</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01316138508285678</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.009739851886890621</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.009525094316176321</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.006669314859753347</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01339561961118109</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01375524214839063</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0119303685736071</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01360188400275966</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01476079559418998</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.006643717682968388</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01205062190931364</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.008410690031426681</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01693197037316673</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.00496603506859417</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.008748529038542887</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.007744739763409965</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01369512978340768</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01078441414137429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.007789519343795188</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.007320642679630633</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01190969302130611</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01183007455943682</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01251962781739087</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01584233492631508</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01537968688761677</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.009214070823471426</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01172231975992411</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.00801572438154542</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01025227921125425</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.008417759486676838</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.008360035224336091</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.008112554037402402</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01459052848473393</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01186258333011965</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.003744991758024537</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.009573232329419864</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01272119804088948</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0123682213206365</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0119351587457655</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01445604390750476</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01038839017080259</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.009015883417443875</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.009763347397875082</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.007330619122801038</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.009101983604313725</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.007653419746545528</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.008466182018291114</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00811963406899131</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01398235498724855</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01317324144614026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00423881071992898</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.009603156190683792</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01292231609966679</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01698157621032155</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01054242472149917</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01138549077136809</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01291036852044998</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01061189792656921</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01272240151918583</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.009144569211703573</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.008380623593490732</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.007720221777073202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.0107222903759887</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.007478341525163407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01303347239357385</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01284604976595902</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00629287273736357</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01004189534007847</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01557477943270614</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01880670019015156</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01030985227910688</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01010556137792993</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01252294760583636</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0106349297747811</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01057466804189137</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.007898417869153854</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01122134407593825</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.007892985311871657</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.0112859574520439</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.008257728087899506</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01221854085895113</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01229336975190828</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.008060714602080077</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01175353261738349</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01237433245937667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0172267188012092</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01055775955928198</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01080165920957149</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.009537000200417707</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.008704290847261594</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.009499747595795803</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.008777511110015247</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.01249146064818565</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.009986991084743166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.01201879319945296</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.009126857831783958</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01243755564835859</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01172545551982288</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01109338487032308</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01302501849464572</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01135870031272013</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01744286540349327</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01216477807687081</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.009038579093157749</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.006647920117370631</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.007100020889663159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.008886626010952151</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.007964543515414374</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01396071837190906</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.008154565648923849</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.01188290097746353</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00724193293250784</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01192367345577451</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.009059263374731409</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01209721659103024</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01213116839286133</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01040311364660814</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01753884426911631</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.009229332738582721</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01176692393957903</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.009333834755651083</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.007622451017755971</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01294044322586182</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.007265652531984143</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01287102277317933</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.007997886903832725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.01300362243344035</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.00624832562518291</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01262707876552187</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01129917375406737</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01159186863051597</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01024565259491447</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01035484051350485</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01332963163644193</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.009775292102934452</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01071304484534545</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01296817001071734</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.007689270788267146</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.01141555829514118</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0105703719586207</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.008792009675940883</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01027663317402635</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.01185568763892965</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.006574593783837679</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01447895221014934</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0111249829420059</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01216591048146509</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01059590486807515</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01147960010907936</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01082846406160153</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.008651993105317503</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01366462375647315</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01067026679858398</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.009878590957507389</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01056017258984841</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.009502475013703793</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.007577791751479402</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.009665006102919919</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.008933522519530212</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.007070012706478539</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01471693341070477</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.012094647731122</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01290979553010503</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01496311042994876</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01044623854260749</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.008061094238779437</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.008209380028781906</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01472479370386576</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.009991878815444952</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0111558930830155</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.008033061689457097</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01080859607051978</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.005978694165649911</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.006847528241200174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.007848016937853372</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.006879714666775127</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01419535977627946</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.009906725958347802</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01468956115583322</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0116135427956168</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.008668938342922648</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.008413305529304835</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.00965845264281851</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0138694735176456</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.008964535493870092</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01228716086602996</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01169940597116831</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01320214840493211</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.00686639473754616</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0086091842393881</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.008291745371584135</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.007096451334843501</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01269850377558947</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.009744188908266926</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01594451582133919</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0115442816556942</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.008513542972173759</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.009536942300933202</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01025616181357236</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01246174174459675</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01012124410162742</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01090534099917149</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0104608621829003</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0141285174447456</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0104054154339628</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.008462402395963407</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0071557788682949</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.008818572091235582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01150065463385835</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01154203910949528</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01503342218356668</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0128229709867052</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.007344376263133912</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0123041853198932</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.009310068592526475</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0100755100046593</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.008846208457425869</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.009579166263074514</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01089052751109105</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01238196660105394</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01127376515359641</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.008616569019844493</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.008512184934329526</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.009487012637105691</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01308439326167495</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01173460384584991</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01308125711400281</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01251383710804816</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.009403632245305316</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01159116879157472</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.008098595858230181</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.009382194956985283</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.008616150466267278</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.00858857298993535</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01073462944381037</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01383481576145615</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.009456653976620072</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01164926874625457</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.01021664858098525</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01101708305939597</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01337366256105826</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01078962433541114</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01418210958911964</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01203666067020777</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.008298449157208884</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01173564456963708</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.006553218628207312</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.007736959688675903</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.009917070780046401</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.009359865158576975</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01251821958194531</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01378488962828139</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.007003723418498474</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01303815631443209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.01252172360015163</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0130060213415599</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01128683265567109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01038942012862536</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01265436492468174</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.009863198527562473</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004785706325019927</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.009376289999373613</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.00938849062940284</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.006462017651011189</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.00915096676870159</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.009569629536617991</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01623380819619216</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01240301661245932</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.005954758473485652</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01337231883762102</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.01137161830414281</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01313079445539221</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.009710064083498721</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.007859789980873045</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01282981210561805</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01041109283205768</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.004789590804538574</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.009756511348561812</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.009908788503062425</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00662500095932425</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.008568440645486437</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.008351535328746548</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01399571954917873</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01061710871946728</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.007553023024745028</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01175937963444463</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.009610016694317873</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01226351598183504</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00903982525885568</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.00795317096020803</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01300269581403199</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01290442406116957</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.005475636948750035</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.008292944302646295</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.008403505185737636</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.007001476525310109</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.009665304331490964</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.006254822251231771</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01430724050888443</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.009136229938393589</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.01041987154247043</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.01068496078972506</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.01032910213232803</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01209065884083695</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.008770673728522152</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.008076264489653161</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01285175980095927</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01175944269936448</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00614540713798609</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.00638645619727135</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01109871381826161</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.007005542402546579</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.007472477761949553</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.006700539832825571</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01396049650468159</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01030392189354445</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01011374221095504</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.01080568134799731</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.009783367774326103</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0107519338596161</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.009514083330209481</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.008590915365541546</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01311167995996623</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01079049124021164</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007252539202742504</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.009269776659012526</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.009762872246704368</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.007400251545443052</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.008889208835613416</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.007783236266988704</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01138063077638536</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.01138081805941877</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.008935814241679434</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0100594254830153</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.01164499320424363</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01182553381834894</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.008767544113426435</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.009878709784502839</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01013491609374266</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01121907836939614</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.00948428524025581</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.009404693707857504</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01033005356336377</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.008928481377613985</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.007675128487598058</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.007384324539532684</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.008330618000693825</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01172391281429428</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.008810748874668031</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.009766827305326032</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.01246662588136255</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.009238942494705221</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.007227858373080581</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01014014736165842</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.009576562944423928</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.009440269847580545</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.007040863493402104</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.009267366165304084</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01006384617877059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01031942447529149</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.006803493428405874</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.007493164581492494</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.01069081919800207</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.008545693881259345</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01009238248505118</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.01067821011414922</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.00950688734548938</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.007660945405541498</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.006230263570490833</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.009384521241632787</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01147759008369147</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.009907079999069247</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.006279171617643439</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01141725667447923</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.008155051311773</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.009781263403744186</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.006271655493089334</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.008681432227938204</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01443329740031534</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01046573985320707</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01179639045937885</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0106872315094342</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.006987128129596622</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.008642809513798647</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.004584944323591519</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.009482270942167914</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01134994514691748</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01071093961811395</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.006228570882237563</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.009985176355852826</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.005215763944459202</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01128771832717411</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.006157612316649697</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.007467297450762087</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01496775393895859</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01023331215256431</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.01179709031508516</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.01015022924051057</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.006743176445557866</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.008855106772506994</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.006257760268289306</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.007823940224572347</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01051082690255246</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01271021808371163</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.006457725457631919</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.008322937059839181</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.004665200156288544</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.009587579079468219</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.007076218102507584</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.006495958018770884</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01464197457329671</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.007195271753646026</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01191829915803579</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.01179786685321081</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.008118282699345196</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.007511615976543511</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.00972507249938922</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.008036519524513451</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01279888286778272</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01388535216184467</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.005790670411458145</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.005888098751078508</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.005972868421299107</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.008327307177567096</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.008539753154991557</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.00699768936642613</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0116210221698048</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.007215124152781347</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.01078572016947987</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.01360644245293529</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.006534785946415576</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.007239843886003153</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01115549399539317</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.008237153301059959</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01464039960634662</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01211258519154954</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.004321573384461568</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.005677896272703092</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00595441890808388</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.008090960095471977</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.007989543719933004</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.009128097255436136</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01196512940924272</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.007391063284472287</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.008271128021248032</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.01255247831572426</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.007114066277699748</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.005230462953227923</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0146701791427909</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.008219586998495105</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01172372531772698</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.008029562583331224</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.00680579992494409</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.004798511964201504</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.006591857718569829</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01023578556955031</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.007568217676308266</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.01043166967318001</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.01243579377701849</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.007053321450350978</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.006350050020487037</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.01393786076598961</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.009760217353626409</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.006105824020760291</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01354270826940301</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.008063195586602016</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01139118691446836</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.005436996970898162</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.006869042025495748</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.006131880848963394</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.007811334828057978</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01182441704475153</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.008426187502741161</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.00886698915010445</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01170576648744688</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.008192756357179417</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.00627328586207246</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01637768613629017</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.01005377530898133</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.008108716628725983</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01144083038005053</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.009399341833924765</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01056047805188693</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005792160674414348</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.007508046978715458</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.006648085035665631</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.009559565257821603</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01029945409468351</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.007362498746299988</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.008891037659338959</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01232770666876301</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.009612630673530976</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.009231908962925991</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01432956415990437</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.008336829571605146</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.00916170053472235</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01085350553464966</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01117637210807693</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01062645507493143</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.006365943959443775</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.006530423329872466</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.008511040707273944</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01099181168496621</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01015816563696319</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.007936840470592366</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.008038580097420183</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01090441810820519</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01091883508979189</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.01075190820752078</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.01297372126444737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.006607270503154592</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.009163863285298616</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01154254397337759</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01202330618255255</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01411821587758686</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.006093851688916792</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.008366323844221589</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.009222970084894344</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0126264916875218</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01170107514348364</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.009397397799767757</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.007765308882025896</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.009574783109706504</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0109671149918376</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.007901393642789066</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0118910041790618</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.006645095413893562</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.01006695778073443</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01072432970682055</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01243001441314865</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01349323686804477</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.006128466237196207</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01010651142363169</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.009357625358293518</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01477592933476393</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01094837084801459</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.008605442322573886</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.00985149738073182</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.00950346505634911</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01133555806770296</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.006668508051873481</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.01156197378093048</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.007330023081069864</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.007379580762826922</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0125789184348845</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01128544834703765</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0126309847522508</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.008724430755021708</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01120611515238528</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.01052922401947096</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01158493689558656</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01037568260530613</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.009317661303682849</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.01071415111942366</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01137261494972709</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01381806704829892</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.01106506696270194</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0105239475859377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.007376453286606953</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.00774451987886743</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01466122747946991</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.009628546959409805</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01206162728443586</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0113746908362739</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.012347274113489</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.009577301691385598</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.01160707605998192</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01168609477919331</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.009967051428356249</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01284181136574983</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01257759200371676</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0128597394870869</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01395115399495997</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.009448533840347762</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.007342082744237485</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.008490145689861743</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01261353397373076</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.007211575458944079</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.01262826302660819</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01066850121129934</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01372502236105094</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.009782016240054273</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0108476734345307</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.008130732846368317</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01328404369970586</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.01376115788749657</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01063533428225835</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01125952230513323</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.01120987325732293</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.009279835801305581</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.009815380974048863</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.009455632979348955</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01033088876270085</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.007588616904055968</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01505837971537859</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.008875725562620097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01200613605626586</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00807439028041017</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01151526621421352</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.006871459169345486</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01328441393039033</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.01172367794531072</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01270284513498344</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.009987278312307684</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.01039692788464398</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.01036216971443069</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.01065088729394575</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01057336563208145</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.009158797712690934</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.007426826329916973</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.01508894300446602</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.008973139853961559</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01235083025984143</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.007991325502012753</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.009869003981131956</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.006959884876976546</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01241308663505517</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.01068110380712931</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01196641175151664</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01074785560393884</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.008480586927091674</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.01008989552363207</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.01023579503322354</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.008683904123516733</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01105093731332102</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01041391794449346</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01454049452650503</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.006867137043431937</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01224475096566016</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.009894288800819592</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01056367427872955</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.005405006281089365</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01292442067018727</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.008550844764407529</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01110797700312989</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01148961181188623</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.007483387819982567</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.009375752204784425</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.008857291598214878</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.009535332755819406</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01021216265460414</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.009686810081536774</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0129771486929864</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.004365313349030154</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.008359799773130469</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.008673051592866916</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01426346019591669</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.005753292529518852</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01230706458237213</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.01089797647918654</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01240318909437911</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.01074731527436433</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.008738172290005898</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.01302671808693865</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.007450861080667432</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.007842875411277973</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.007888546139406566</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.008589274160344955</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.00790470219504742</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.006842575097877087</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.00782904060970269</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.005983000825664833</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01305625406776395</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.007130066443173487</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.01129256604616242</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01024028120038325</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01449245481213018</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01070017506546984</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01284635233862272</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01471121950375443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.005485089098476061</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.009491624363381686</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005068915460652886</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.00786751373010032</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.005811320974296072</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.009741714452102066</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.008233044257932918</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.006201650936542714</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01278985569587878</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.005395712993884495</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.01022392269913376</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01007336272949588</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01511447543710775</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01231804393630902</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.01491356930588129</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.01276001122305514</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.004812488785747366</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.008960212654454838</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.009077635979174024</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.006898510585649356</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.007278023729305812</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.009950921792076569</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0108500509278097</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.008113170332852505</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01069468296178574</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.006209455687037591</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.008149176583647963</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.008212755472550903</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0144836668646595</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01081499555225681</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.01269698541277143</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.01314380451355343</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.003709547481884736</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01001403429812673</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01399725733816695</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.007872437690771351</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01058648278608669</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.009146134308504843</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01166160017098213</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.006613214715592146</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01150257613391861</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.007149444354176799</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.009583517665000981</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.005982320977766951</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0136738605250784</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.009212138016127686</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.01113760550227406</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.014838012360315</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.003260205602362653</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.01307329069729456</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01434082676173477</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.008062805117078319</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.009740433247480329</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.008554285739299101</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01213466327434421</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.007373550778081356</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01094460171443075</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.008083254662420183</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.01202763189733737</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.00290992503069813</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01127614171865364</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.008297561167868079</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.01128071630326827</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0166327936242886</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.005136124552620914</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0121068824438036</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0120167305459175</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.006682044579027511</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0107399321638089</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.009547436932911695</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01265004811066635</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.006598892428268577</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01022727111538617</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.005757344697915162</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.01199265652953506</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.00335404814229984</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01012117807164764</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.006359288945822388</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.01193743215003957</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01459790620983135</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.005692125662542618</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01085960699067401</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01296979880389193</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.005680905603512404</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.005572486191725703</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01139081327746396</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01703775714894138</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.005090279434229688</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01010678656492575</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.006162788256616777</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.007704439163593217</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.00365033862670402</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01078033019837458</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.009241977518709948</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.01213925096509882</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01190690518829456</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.006121945872952656</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.008696781630661872</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.009786853912466616</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.001682757852527869</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.003219044648492146</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.008726589335907413</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0128679902605209</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.003662774680914379</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.008409537093509315</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.004907133769901548</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.004317359917628022</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.00315016714530082</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.01006627067288958</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.005334488002387793</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.009101650084030804</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.007993932077120763</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.002559357010804637</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.002058174562876996</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.004745639735825573</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.0005165759545546125</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.002607625201732037</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.004702865781110985</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.002859577868828941</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.0004738944390295627</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.004386477410125641</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.001061165435057711</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.002456298071580439</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.000331570258716438</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0002889343300665814</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.001227334034264358</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.003049299842589585</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.00363042084107974</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.0026324518049882</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.00144317035031981</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0001929084384010413</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.002375054725357334</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.003002463722465147</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.005375042971043499</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.002056376387235067</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.004726516946929374</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.007844375888400158</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001565245692695624</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0002220120770309741</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0007561155088587345</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.001810160861679655</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.0004495599168860864</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.00252153086813206</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.001045527473791214</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-0.00203023769443086</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.007352221251704654</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.002256716985369659</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.00308506562951436</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.002622445935995288</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.002531518582457832</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.006946890048306567</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.008488193052920201</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.003252510680114067</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-2.07952592682468e-05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.004331465679782849</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.001099187739846899</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.001405382079014809</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.001938386565137762</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.000537122859163395</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.0008812754552286449</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-0.005330390311085103</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.006951023026470535</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.048279928219173e-05</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.004565412899063087</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.001365665586513703</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.001432340601270552</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.0002002410225566659</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.00309776589720065</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.007318692440906934</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0007214282568954091</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.002309038708450966</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.002026831078042335</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0007555030371956978</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.0008596599464738909</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.001274576091384678</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.003136189794972999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-0.0005896987440136871</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.001771773433479733</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0004046608157811388</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.003371046098430322</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.001921412700653017</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0001653527794717194</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.002265939694092269</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0006140785435114144</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.00507761158626086</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.001283768821711828</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.00127804981572692</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.001492408177692855</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.0002573927795358107</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.0009285682878293778</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.0009447898192524369</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0005038379934122855</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-0.002167991724294281</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.001698816089102175</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.001018642180261193</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0007053756222050977</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.0005947181909518746</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-8.72518982891934e-05</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0006957786356656708</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.0002836732216997046</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.0001901135382375687</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.001489203858713022</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0003677787395092243</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.0001754220159480408</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-9.198894743778713e-05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0009401675733594557</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.001225967188246547</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.0001009593385094951</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-0.001220887763598614</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.0003029986314411796</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.0002140016898482122</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.0004423072435985669</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0002550955106892318</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0006987487428323412</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0002765964549515745</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0007699512750235331</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.002005658347289815</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.0004245315719956408</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0003670252805478687</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.000694904655972866</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.001315975366166495</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.0004151879292733284</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.001384744592606148</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-7.142345159386485e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-0.0007101321594394647</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.001366716399108252</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0008920718146642613</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0006525647225760482</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0003170454184640511</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.001224773637565156</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0003677373186619098</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.001546937497663552</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.000886716878592292</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.001423749917597818</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.0002436057333197281</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.0002677887822353379</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.713596564059129e-05</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.0008469859555526447</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-2.577270453153115e-05</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.0006717438552372577</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-0.0003841429076089755</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0007630986379996644</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.001068317375822561</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.0009619119443388834</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0002534976240909286</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.0007356611392422806</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-3.939943159255598e-05</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0005937973299405524</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0006188863243061485</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.272991563216184e-05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.0006099625452699659</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0007504992516942368</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0006536150748617096</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.0001568872225280337</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0002298671938269652</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-0.000844249779306318</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-0.0009352895488897656</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.001351066543274411</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.0003464418608692832</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.568083269368296e-05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.00050296159060584</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.001030037406579728</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.0005193389508934568</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.001186123994717056</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.000333420497274517</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.0002548324643435882</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0007800507640433175</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0003598948843009709</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.0006715915819009963</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0001110308322463678</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.001103519746320814</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-0.0004039701992328932</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-0.001887088509471546</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0008221864194684121</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.0003871250490741021</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-9.15740690210223e-07</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.001201577618023661</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.716942912700173e-05</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.001242662588745703</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.0021667944188939</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.00068717477471517</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.0003272044994501596</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0002458741183011602</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0005421661127788486</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.0001183952393472884</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-9.315742769137879e-05</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0008682110833221815</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-0.0002540767074742056</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2.515781645475892e-06</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.00106293872275837</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.0004369426693617447</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.000406065076514829</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.0001704926176664007</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.001262542084266885</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0002749400586647176</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.0001322658614874287</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0008556211572856084</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0007600857625200934</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.0003075089806883745</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-8.329643962983682e-05</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0006760442090844919</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.001450944419496499</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0005275937366840388</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.0008095159998710147</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4.43370487565807e-05</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.0008418853961405793</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0006436695278487409</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0004394241909065577</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0004691737512993023</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.949678206485531e-05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-3.529341778687427e-05</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.000351129980727115</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.000434763091828611</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0002669061519716661</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.000172992194717657</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.0008466286775341955</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0003475429623915102</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0009383252155184139</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.00350877329514e-05</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-0.0001504481996542257</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.0002278658656279197</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.0005352879310733508</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.766562492795655e-05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0002528462445423843</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.0004089931910353389</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.0007983246956832264</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0006697837748675174</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.001788089208953083</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0004871956425743761</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0004902768742441465</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.0001743496387100486</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.0003124737657194269</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.0005677559146691792</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.0002977055907120275</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-0.0005969160500994362</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.0002792759680563447</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-0.001173515723864603</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.000214521619012863</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.0003621226435381823</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.001047548164206249</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.0004103131037941428</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0001652144689877054</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0001350396621034693</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.0008500823106771006</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.0004269832961480488</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.0004387827272086357</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0004184778617197399</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0005812442009346265</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.0005241896560465598</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.000181342214681261</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0006554855467512432</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0001675124838694979</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-0.0001598492317236204</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0001164421308573083</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-7.336587333175925e-05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0005852242052411168</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0002019807917782323</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0006000254038932931</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0009900220016558279</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.0009724042760057316</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.001134939096341252</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.000658048334020991</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0005820288438922856</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0002718242076866774</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.0005511361293430006</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4.668658903194501e-05</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.000726945772530898</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.0003606826922173745</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.0008936463522382823</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0003583581228862759</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0002531526514206048</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.0004132391803507811</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.002804586274671e-05</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-7.622526827570196e-05</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.0002723653261307395</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.667245851036935e-05</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.001339175389650097</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0005839309739267642</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.000619393404440416</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4.789108827894467e-05</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.001672116173039859</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.000491216825260289</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0004223540368222109</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.002364855215473543</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9.405413551958716e-05</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-5.515822443271619e-05</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.224591550646488e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0005850068083061742</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0002351362469282334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.001025517041684765</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.0004351470742658653</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.001640436598275209</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.0001684526669385553</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0001329601798441142</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.0004477381666081075</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.0004101150495333885</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.001559987726996484</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0008039546753795751</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-0.0004414256407869743</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4.330116143920448e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7.356777828337126e-05</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.0001886569848488822</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.000482805965155622</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.829924895056341e-05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.000731968630886273</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-5.814757956450481e-05</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.00136729566583915</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0002150771471259831</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0002364642226158114</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0006725174745638026</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0006026487498208632</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.001115338529111574</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0004147335225452607</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0005519065440885205</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-0.001613841679659739</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-0.0003590366042528713</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-0.0006873530821530909</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0003888447786492418</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.0002293058465753573</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0002917034901812262</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.0001715953343093761</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0008235059089061043</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001880907350516658</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.0003464873306319011</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.0002927794557848528</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0004589035289995989</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.001373669082209498</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.001067800095098133</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.0005476902241865232</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.0003820937959053106</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.000257615862005246</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-0.0003972733595927501</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-0.0009071907330516004</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0002370495093709715</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0004204712139595145</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.0002292261769028412</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.0003003717851789112</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5.037838895600231e-05</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.001578844924900045</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.001051549370462289</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0009963511816879292</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0005708932462788932</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0006792174965194738</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.0003228117423116966</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.0003943454501203914</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.0004424812012703999</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0002741117217851753</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.0005640215501215728</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-0.0005060184826199472</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.153449707110371e-06</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0006073010598726707</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.610497282137484e-05</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.0001584753453229838</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0002486298035495654</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.001123761316867287</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.0003770516292680679</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.000849853740980046</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0001369630426733833</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.000221920948846351</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.574672420924786e-05</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.001705199600674886</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.000121824826350725</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0005202919019119967</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0004092884247991752</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.0007030351949156158</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.000195820597515232</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0003669253218760106</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.0003099860502016347</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.228544753110585e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.001411792486581634</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.0005586027377556807</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0001789442672486212</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.0002267551143398964</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.0001844198219666834</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.0003564131561128608</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0001360472687331871</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.0008571248020841276</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.000941635304019734</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-0.0005933612634189544</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0003354134380025974</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-1.242324837752066e-05</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.0005381547672208675</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0003847093144126074</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0009827194325946374</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.0005459510734126303</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-5.740661462765038e-05</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0006992840483044283</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0004618171045960494</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.0004333333201726768</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.0004891927809242623</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.0003687087401038221</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0007434305376941258</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0002276123147557502</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.00111704519216141</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7.455986315977451e-05</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-0.0003879128406084302</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-0.0006711513050948133</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.0004821306790878074</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.000193066643483301</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.000423847917286461</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.0002831052769127022</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.0002361929109823456</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.000746910898925574</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.000856291653026157</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.000625853514248181</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.470646942815842e-05</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.0006037266148550036</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.0003521514910861215</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0006618018344621982</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0013284606613297</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0009214012833977688</v>
+      </c>
+      <c r="P86" t="n">
+        <v>9.0717210973818e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.0005565764182118786</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.001085356644005092</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-5.967306319925519e-05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.001032635708951881</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0003258489144322141</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0005282830674765651</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.0008537324118871462</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.0001830166136827747</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.000764675399427247</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.0002059162422631921</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.000468286689871612</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0006643636136510772</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.000166247844493444</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.000474165378022088</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-0.001571489631799375</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0002534004159500111</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.001122611565260871</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9.874048830024814e-05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9.28010638840959e-05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.001050602944510063</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.0002802065509077148</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0006971476990696289</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.0009861508480014929</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.001355722003809726</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0003520408197916129</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.0001760941270548402</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9.349988303644824e-05</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0001630716491114806</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.0009750959246473044</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.000373126233340039</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.001106087083320873</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0007643407934607026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>net_4400</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>net_4401</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>net_4402</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>net_4403</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>net_4410</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>net_4411</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>net_4412</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_4413</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>net_4420</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>net_4421</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>net_4422</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>net_4423</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>net_4430</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>net_4431</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>net_4432</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_4433</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.002697196077201308</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00449347961780404</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003622288777825764</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001876328679476399</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00255813499182788</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.005018812689494703</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002551057455248914</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.002361776400311379</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.005793473999766739</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.004662853791525218</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.000241994007075796</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001692061253520984</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.003720154897185543</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002677227440665321</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.002886648255414708</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.006404216659145984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.009653573540294426</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008952921249610632</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006118111709435603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.004641388644740294</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.006706773336539604</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.007375180923876696</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.005267908755563628</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00653618834458787</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005412928173300061</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009059189705754358</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.003572354043683391</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.005885410643197198</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.007645342835031795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00708776409838947</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.006192416269497392</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.009810390808969612</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.009097165516747439</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01235563578805391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01232133760184221</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.009524987816219741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00990155841056245</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.009676530492823885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01077066816875648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01348944354539173</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01043237205755708</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01589485536859077</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.009604315286949511</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.008143444341643167</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.009736861628002517</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.007720682586647046</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01303399600675701</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01502195409212971</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.01591342087807435</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01455237907578825</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01474703592096805</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01355538792872595</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01363370310775735</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01303080137468998</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01183995179340324</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01835333083394629</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01285783187116876</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02282400243444852</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01622139371562084</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.008550093016202074</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01207364826431988</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01546187020391395</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01729125072813026</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01925287999298082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.01680173758367749</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02139989610976095</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01428793129635754</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01799342707543777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02063822162381258</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0201436219438291</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01718204133604534</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02074630995334953</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0166363489296038</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02654147930952856</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0226340563435081</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01630215653298011</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02088464106309907</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.018835152460896</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0201834429886162</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.02220274438456045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.02407686403061892</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02572783952168721</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02384423340604623</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02092752985524459</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02156919799724367</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02078503335036935</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02197146271248963</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02531803960397256</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01937019823263249</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0287580510224403</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02833715157847222</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01582510426530159</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02580999530616483</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02339240030074135</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.02229222895270544</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02323885107896709</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.02581438885203701</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03339337843993539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02799726980482419</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02784851606068692</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02580523957453807</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02681129593742702</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02761763013982595</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02859194822419289</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02273377371924551</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.03339256803617698</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03027386233529038</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02385950232144548</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02856295958711396</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0249205410772485</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02592231486708904</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.03119212415746864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.03010318982691286</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03956750582888414</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03596339019304905</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02857515344052787</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03173731589814174</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03168201715780773</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02940819873147752</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03389439227509884</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02950093024098553</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03849858013797224</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03302087705495498</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02956887672435565</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.03325947307883881</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02779262271583067</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02865314575642137</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03486512477819713</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.03425084950972252</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04812653636358342</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04027809760919278</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03385265083408563</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03606062194196637</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03377351140972882</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03546760105776659</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03988562489379699</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03558122062525197</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.04074180485460302</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03973362412647311</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03262588281167052</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.03746176463592809</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.03408892117588999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.03387136879892599</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.03692505825544129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.03911669828525974</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05421937843293563</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04356793297876923</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03887359578617976</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.04384038539764738</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03825455819227146</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03970078003256831</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04234064705659522</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.04137239576634975</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04356979089234553</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0432595442458055</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03775690271707945</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0393731329122223</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.03991441007125332</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.04170552322051435</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.04419069163563513</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.0425860979540428</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06000936831723418</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04890075904708434</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04653001983108425</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.04911367591971202</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04358507086087181</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04362121003264671</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04933173957721113</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.04533155315667033</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04852392671743107</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04791485023097769</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.04341675867684545</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.04592812355473055</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04394965481297579</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.04659238797611478</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.04664090480072469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.04415771180620643</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05932225586545125</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04894588888847059</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04642116252568559</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.05183548017697857</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04594151226050244</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04539652669254352</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04950168491049629</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04641824740003182</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0511444599723038</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05003999094824648</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.04649011469376648</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.04509656334634607</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05079207044216725</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.04748591028061985</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.05075207598477188</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.04535625914087402</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.05751080212452911</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04800924816005489</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04574659551540965</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05508065185861519</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04536190729089767</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04394858355393136</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04896685937894997</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04582510932294404</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04869295035214741</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.04849782893645121</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.04824072697761546</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.04588475326736193</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05240374333447006</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04655752282912367</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0520050639545136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.04451333788737326</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05462482865019133</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04901594671403145</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04550117571442595</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05405131552112277</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04429568095590133</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04128435017662343</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04773495291472296</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04437089027165307</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.04731635234237121</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.04655680655569338</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0479955299838669</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.04309725541265331</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.05020242322384166</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.04342691628591587</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0485337676450854</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.04353616110030444</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05353148541690238</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04530274613937563</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04204869304346881</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.05018492330336306</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04203751177612706</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03857931999935242</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04550179911490331</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04298501837310417</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.04564162330098675</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.04247788620346375</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.04746576190953469</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.03873073189755208</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04747110862745987</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.04287508684814283</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.04692932980481397</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.04208474420290811</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.04872887571481849</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04222948744631544</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03812084428700222</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.04622650559267641</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04026168025624327</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03733592745431401</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04222765752101622</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0415966061618494</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.04233035231795207</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04089345403293564</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.04551289775537648</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0364001470206252</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.04462554226719251</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.03926920422792742</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0462250141676931</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.03778437428998132</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04294945467603258</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03893673162417853</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03403606525787003</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04358978652291327</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03829433326873188</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03600885000825858</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03836214806085537</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04203038279648328</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03826737076625349</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.03806003546853085</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.04255521624461127</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03254182240165794</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04153793760378904</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.03693295587025509</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.04390443118791659</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.03514284541317793</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03919289947613026</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.03534725048246955</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0315484721489358</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04157769629986204</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03549091780346318</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03339775990942698</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03633216867280883</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03816270265914581</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.03523325491952264</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.03403960787967562</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0391543181136285</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.02926059841787618</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.03935224858400184</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0350141622031313</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.04030775114493646</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.03233673934350918</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03833483112086671</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03169208835341679</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02916799010338625</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03704999381978571</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03545339922343247</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03138900925742341</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03339971609467384</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03557138899190652</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03096880682231435</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.03176910085559762</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.03673248438525181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.02797068765715948</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03483152805205615</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03119587907767582</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.03566077823075427</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.03015794114226841</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.03617028746734326</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02810239498388809</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02695880027056572</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03261198590613756</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03344413155950609</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02828239308538766</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.02996258618000969</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03302589997157509</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.02875013045699132</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.02814478458548011</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.03493563064992788</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.02653912136606274</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03141620462144803</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.02792433305761885</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0335406096450899</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.02799176622280962</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03180932979351686</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02670753469171562</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02469500702037647</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03100925399932699</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03235077152674219</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02646688746478074</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02784929522392001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.03100693109517528</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0253419101303886</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0248089152435998</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.03512136280088372</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.02307227302107247</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02798472391263103</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02686096086172762</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.03070577497220231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.02540511299783803</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02874871178368671</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02495945588269327</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02300789652810838</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02827374322366471</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.03116458889267809</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0263395433951031</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02721949983731266</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02825915756716566</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02276245837802486</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.02410067376681582</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.03422375215140441</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0220332132113981</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02759327579943197</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.02559851623207882</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.02802349961411386</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.02437603881447658</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02696663351828444</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02451461451520723</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02249736733773614</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02612104802966921</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.03070493567771943</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02370304911305287</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02456474548057614</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0269581713784343</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.02218117197766484</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.02129005107431491</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.03230467386515809</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02068019097397444</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.02660790935039029</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02360713915318986</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.02586112606905304</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.02384672885555121</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.02634400470242074</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02304942200688249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02127433396359114</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02633520079139593</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02859038362290295</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02307983964989643</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02367164653080888</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02666453949853778</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.02015843727089203</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02142042650349998</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.03064058602841063</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0197529555454998</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0252116208847383</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.02431880589082438</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.02392062636925704</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.02368027938757551</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.024607031411756</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02060157873965838</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02039443864800381</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02465814758532917</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02763388452586292</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02220114634227836</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02315108523176611</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02447741642863801</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01944999130225065</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.02078978057180684</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02768452937444484</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0182407757242288</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02403611508427539</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02430684963466472</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.02217153545376378</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.02174655891228921</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02423202534018854</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02101182125046283</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01937363295688278</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02299110267776743</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02667872743664803</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01995749895530075</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02089212621852867</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0246708541836799</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01942174155953783</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02063991146913193</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02591981318327675</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01865605760007535</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02161195955223242</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.02453964363968831</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02097660250572062</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.02081772668768988</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.02307020250485342</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01889926621250121</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01982323362028638</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02220613171524646</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02635764912637973</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01984930984030548</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02010831265397175</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.02390643246270784</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01873297400943556</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02130435104236817</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0240092097590251</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01773940204153523</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02067453502296152</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02411359882910599</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02022830029466655</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.02064524808559124</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.02176719304932249</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01888214889051798</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02119362170576425</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0214154563072927</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02453212898111587</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01964777655530775</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01978832592903422</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02381396188877968</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01667164095511882</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.02037226545106831</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.02319999063339033</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01814853353429398</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.02081185758006034</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0228417507103485</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01963446543292094</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.02029359035836427</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.02037092890906378</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01837338366186083</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01897323380594447</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02119479026908443</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02491847539885284</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01841794558355143</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01970174140700086</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.02277175441765596</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01631926897102353</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01863432057024031</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.02253085152302422</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01784285801941224</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01977004719043281</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02254995183066564</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01894204635864552</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.02121089196330862</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01961539467370256</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01744193903042894</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01907344239276591</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02084134664697912</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02382589905512424</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01853429447626241</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01986459987503571</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02322709548533212</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01633176426185452</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01908780545747202</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02230481113416922</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01712798081941982</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01894423827564602</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.02230119655598627</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.01835894057182941</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.01968119360813034</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.02023549229811579</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01672489366785359</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01984319174581768</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0208749153212529</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02336290645237114</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0177498556548825</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01918688348080447</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02314390869237728</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01561416740893896</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01807478183134461</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.02105874592857617</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01583861663513315</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01852040856497928</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0222108858892044</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.01750911000840461</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.01986479547254779</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01932663903749522</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01606113301847169</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01949640243165555</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.02113229809923686</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0222878730855099</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01795556981455775</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0191825656272537</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.02221151448027033</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01596184222245509</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01675454126642913</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.02004851491097068</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01526298305963741</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.01877303488977303</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.02184659871682394</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01605042040515375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.01947384859657986</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01869215712584567</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01635460853684537</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0192471141884299</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02117027818841406</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02161071036105366</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01811038254043574</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01922406737744243</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.02174760136375905</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01697025781880433</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01746190889674609</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.02019038519542089</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01561062486616214</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01832233473777099</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02175241819860883</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01499691977642846</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.01887648155670831</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01741266055649046</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01733685734738957</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01955828141758511</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.02046435231706912</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02064183170232606</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01811841255214152</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.01917675369945439</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.02164322070949664</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01709961776154057</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01748376218858993</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.02073134017471653</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.01520567383426258</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01911428645149916</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02166112242453993</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.01513698335173911</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.01858264792591627</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01807116145044271</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01785740929194491</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0200124205427427</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.02072371893221621</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02077477679939016</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01850452396667683</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02024847690388975</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.02038752427188229</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01774609119546667</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01714300489590086</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.02078234047344772</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0158365203618211</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01943337326117039</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.02126104846630218</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.01432486653854741</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.02032833859190456</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01773128056656031</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01798784433131257</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02046409008757766</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02030095474816689</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01960919930307279</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01941382545316578</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02133026737021736</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.02039974815924729</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01801663907518661</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01716260820312283</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.02052653101114209</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01577463268649808</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01911702921106805</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02207566717625266</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.01415229166146775</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.02151779029214316</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01742241594132692</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01735851708656102</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.02022094468588086</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02051488238284947</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01943143306744887</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02023115540649532</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02174184892273022</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.02038262805047124</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01774222282962038</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01760426363564673</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.02046863391242621</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01646311051375102</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01975228208396831</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.02279785740128975</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.01357990193098178</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.0208152700494692</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01733107928393767</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01757125490170305</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0203589350984291</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02044413507980809</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01937008186856575</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02074745772261193</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.02170856847031169</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.02023952709340745</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01770821023453932</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01676888533505816</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0187406537442613</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.01689793098935549</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02041230454330061</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.02227234133494878</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.01382514163080436</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.02123087024158141</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01679154140926345</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01812458865290346</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.02015077915929044</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02077121866071947</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01910293919799591</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02073452170945274</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02095808065446869</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.02007713217680651</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01719953170510155</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01701850862409249</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01795114971529933</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01586183150439966</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01940367875434073</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.02225263550376944</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.01383788234179014</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.02052477107720026</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01652381984952171</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.019462268302502</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02050170816074924</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02034170131326946</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01834127017668203</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0209341206198941</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02001560556495103</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.02019520175038754</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01612077935442736</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.01656295652527638</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0178763496411951</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.01671365728065154</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01867731341295224</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.02181666997312529</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.01390840920847091</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.01984778167997976</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01690412198088577</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01941069666847725</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0206994124303536</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02031294338431861</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01832223440714276</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02051693989627792</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01908218508835691</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01985667601707759</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01686493724986223</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01680921131922098</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.01835830722282783</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01622626077845805</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01809087280130875</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.02155510406912274</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01394294861884191</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.01976604344285609</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01581044467076758</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02042785810672601</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02116247123639268</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02019228095224688</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01774093854687887</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02047601631680511</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0199903711299222</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01912608486181852</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01689316564768685</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01619227750337776</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01782653753734343</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01598978667333503</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.01816548830784465</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.02111764284674488</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01460373324867103</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.01974396587560377</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.01636851032275786</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01936988998678906</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02017456467565354</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01978329451624051</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01802153132451395</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02091335264247062</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02016060881364486</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01977247590482547</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01765543771767726</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01632678337403491</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.01787180216537965</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01673852467588151</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01826587313350576</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.02201577664105798</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.014292239329878</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.02039565812646377</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01706423557929055</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01945252937682843</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01983106426414294</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.02022683548348646</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01828778088130699</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0208605491529656</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02066435938601849</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01912939060592483</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01753119451787483</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01543193408646049</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01811694187605827</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01708143806955258</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.01801503786852668</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02136040750988287</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.01521835409154038</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.01973650607835176</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0168329622961917</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01964467611018992</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02036661611396338</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.02030091346864033</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01863980920911167</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02082186434152946</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02127835007647245</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01962777924910976</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01725479053366396</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01602825840278525</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01772917948263864</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.01761028418204912</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01855931949962597</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.02109555264356749</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.01473251948529347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.02041812936189573</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.01727004629339415</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01978291633810821</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.02031682123314466</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.02056848630795684</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01950348122371047</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.02080467892006684</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.021363752747781</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01922471224659022</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01710513670445835</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.01566705220631157</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.01825138879863112</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01726905573468685</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0187006399979004</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.02072191393707373</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.01488368514732834</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.02018964649472157</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0178066804997444</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01882511525260941</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.02006615221589527</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.02146193061275123</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02026821194111916</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02076308170699249</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02194663236562317</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.01833742779450504</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01658715442276433</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.01612627726922761</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01865078173720273</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01691503021181625</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01881689253156106</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.02047381889317359</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.01468316152324986</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.01924338874103646</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01790068267087514</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02037389979245365</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01987608115757793</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0215265736427678</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02023609164963145</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02045390098598242</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.02207840429822076</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.01835788304310945</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.01607518362164531</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01609273369403372</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0181743362733313</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01679858166783611</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01930381619918081</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.02056620983483475</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.01433392233071926</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.02019234888116443</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0181956005682284</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01981639435903161</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0201506741160917</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02104018474776063</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0210721926953757</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02116248019801251</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0216728671607361</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01842564269183337</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01588660710057562</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01719135752266222</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.01753828115118066</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01609789559658894</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.02017680258255723</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.01924690271616277</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.01393551340557274</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.0208385474337888</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01662525723383321</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01986408109914792</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.02036605874460646</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.02155681805438941</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02107865046091193</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02004034688222747</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.02056104237154589</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.01882613395000022</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01634551089669003</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01655837811286144</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.01753434235122187</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01526792335429895</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01978103396578363</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.01989754064063871</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.01401444746054242</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.02041201057649005</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01624170984597113</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.02002242600678478</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02028328303021315</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.02183969399995174</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.02015870487795028</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.02034521679609295</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.02071332034762266</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01899807437536336</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01612750878087083</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01685123764704535</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.01702099288690988</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01506827983840506</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01997963318630253</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.01968538163030947</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.01341170685789213</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.02116942681785191</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.01588616732638366</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0197269300662438</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0199773669398332</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.02182805212527229</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01913019519113908</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01970048567030745</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01979759538954291</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01823976845263739</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.01575327290713757</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01698703387175252</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0168100415470614</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01605210966628066</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.01919039039682199</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.01918503069414706</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.01347009094385562</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.02104827017883256</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01555852979305822</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.02008893468148787</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0205177507186022</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.02186270082283134</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01878953584288562</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02012376134953229</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01954771426843583</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01873544283095927</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0162298066495421</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.01698353485600516</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01678730116543395</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01542013476009742</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01981607487463559</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01961204376967644</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01423665703840603</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.02102957028847515</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01455812637163187</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02023804682090082</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.02073598490340423</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.02230616536556687</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01943997518564072</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01932195964836502</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01963105428013832</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01759722763251766</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.01608250412889218</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.01707337801679185</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01681021299976413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01575192964675503</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01942358676071824</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.01864253474126751</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.01422915507924295</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.02041268485469219</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01401533489893406</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.02034194980887681</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.02098567260050256</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.02254897782108602</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01917420545887706</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01965941434740569</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01957005414102295</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01779767120701951</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01487748277743258</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.01644595515921057</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01708661678938673</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01515675093154003</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01957603199876227</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.01894276588326799</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.01358066979132546</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.02064920509891661</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01449547765431968</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02020376139620845</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01988192916019831</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.02200370944397036</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01908178436222746</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01964218669565286</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01949594429871442</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01612662741398228</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.01443715204715722</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.01692325521844458</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01682032036032094</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01439280619285405</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01858673938900716</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.01809421166462167</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.01339109685954883</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.02091996888634893</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.01424844086480985</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.02007652921537898</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01910773182353296</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.02157170269928067</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01832329983208562</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01971367254817171</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01822878269235275</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01620655896822175</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01324483170856942</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.01705252690184251</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01768984158115786</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01378051056027263</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01864149634716088</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.01807495270929596</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01310655371126156</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.02085590121080007</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01358550316156955</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01911502179531242</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01831797163964033</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.02049435282280001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0178411103686661</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01971927359378753</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.01801188761544381</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01654423332982763</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01264009710753752</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.01635092951069118</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01719499150566529</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01357679537393071</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.01737045580093637</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.01700847344098044</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01218292305472441</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.01959284663987482</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01338630217151907</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01910540659210179</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0176661577321915</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01929353243317564</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01687254083498779</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01847496911364664</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01775673118077665</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01631976851864339</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01237618025670071</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01647144856733434</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01592232409718122</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01192051695163627</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0167306476138609</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.01598692203291232</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01065248887444896</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.01954456191113599</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0129660092023351</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01870399095941163</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0172084862020458</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0195814562720481</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01691190862814741</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01722585901874412</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.01711894348156149</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.01585956908400526</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.01103364523795941</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.01518801370662762</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.01507026929081879</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.01134969447331161</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.01672959255502316</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.01528870703962689</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.01013870324328252</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.01843293641347323</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01177713365452746</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0177117119721288</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01632112842325771</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.01823224879545553</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01606705332792698</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.01644817965271067</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.01606374159895142</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0155105599480281</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.009737688154062757</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0143121763855662</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.01391779703804888</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.01071885176139157</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.01525731413857206</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.01368964471972416</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.0096490802161169</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.01785041620690385</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01184119483450274</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01638731632054436</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.01468488347008285</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01695838407489797</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01574282289083536</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.01542224489578277</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.01431839324446224</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.01416133439315041</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.008967800685427893</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.01358003946856441</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.01367004060511666</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.009154701669419615</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.01363980970262951</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.01118560650477573</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.008778252538728442</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.01843485615425178</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01188907744404841</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01627203706543949</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01601554416903229</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01645668198788902</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01541799156600961</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01553463558965784</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.01398280240084154</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01341464562898283</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.009369340111111849</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.01316202910571241</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01290803242403248</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.009306443115782615</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01356512478854704</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.01246973709982437</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.009655426493155043</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.01958460733203285</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01078618671284817</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01778781477768645</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01467892603686714</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.01667794120780855</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01528707894845019</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01577281624271967</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.01336263804605803</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01370873875261825</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.009930872461110431</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.01380222305475501</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01273051486891461</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.009564802066534461</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01416035471095635</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.01221132059037396</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.009666114758600646</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.02043371603787136</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01087950288899909</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01817837910367769</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.01457930299633479</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.01562495052924701</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01457180820363597</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.01637565294398339</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.01239645531298568</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.01383210177138052</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.009569817112568936</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01401475339105219</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0138328661226928</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.009523018346094939</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.01364676982987904</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.01254759769050192</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.008991079353515688</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.01929788658988703</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.01092491528045861</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01727087139036662</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01458179151301112</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0159760349409377</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01437107602485463</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01578263734989934</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.01187304373788215</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.01326117034714779</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.009402469185865438</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.01365130035806285</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.01399412503376282</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.008559056276703817</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01387490079448462</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.01228976181992481</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.008869927315302246</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.01812923099627016</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.01027096764847278</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01621741370684933</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01436832418432219</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0162640962596874</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01452166394795995</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0155900617084904</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.01130200789266761</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01396022331077044</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.009422926482499056</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.01322197698252947</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.01319057740741477</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.008829666006201997</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01268200305448393</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.01250586356166284</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0075767561447353</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.01778318553431544</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01005052998968444</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01558985782774016</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.01457005967781192</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.01522709849522623</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01442098443098479</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01504011755947911</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0114429115566155</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.01348632022670447</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.008191550781500865</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.01347972392815235</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.01303541166751075</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.008579269229087708</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01320690749571693</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.01181083614440518</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.007732999769780238</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.01659388883158245</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01047765596082905</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01536133795896149</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.01452707517116526</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0158569630393433</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01446712546376653</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01417591007214799</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01232141621034404</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.01321677717385355</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.007363332141548225</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01364856925077017</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.01243828740959492</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.008778386860644279</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.01251729562288296</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.01151987658363902</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.006948646410029719</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.01591042802321883</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01050014425638197</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01477275728198801</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.01445815842809377</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.01515823562684646</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01380419986557323</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01436037747572654</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0122612751888596</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0130647599057713</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.007907090946544787</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.01331154259016406</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.01186530384039644</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.009191891654723521</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0121033520577435</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.01141216466434558</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.006935537286194126</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.01667566818678918</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01047577255943805</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01385266764643391</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01418487172863176</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01516430574204846</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01456434995228493</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.01376414269459789</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.01229806594256344</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.01289787395613947</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.008172616068660925</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.01295097246411135</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.01150534897177143</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.008777804623107639</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01277460653910699</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.01113829142411002</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.006948642512101187</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.01621292493136304</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.01054017128460395</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01369920690121059</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.01432567309819509</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01534377633763472</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01413813701921956</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01409938544967859</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.01246575930178374</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.01217016999642876</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.006767363647665862</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.01343150747846444</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01192152562573231</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.009121535245910511</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.01367537131393419</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.01118758578418996</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.00688104377097463</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.01580730296710853</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.009875620475779414</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01383703499791536</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.01429166424590751</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01586316757487162</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01486534788478417</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.01341133733181121</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.01243968192169218</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0118451433303259</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.006908918297767744</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.01282715520164098</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.01158208314499929</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.008702818171008807</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01381684586896073</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.01076605123842063</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.006330612434059428</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.01569062438814923</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.00945510653276453</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01398700514331873</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.01411945432548344</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.01563560392533342</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01366521386396155</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.01293842048121642</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.01184805875863175</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.01172496459025751</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.00715221079502852</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.01261639509315652</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.01146994842428564</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.008705373123487131</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.01350015257766396</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.01026882144187072</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.006975292576299173</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.01555279872363068</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.009945587993394785</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01302503618308038</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01407356211346192</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01557780250180467</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01412802194303519</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01274444831551275</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0107065207195859</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.01149354426251219</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.006830043286463984</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.01246890124591573</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.01091035794835433</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.008599041470466143</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01327855748343911</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.01090706733123313</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.007167693287556179</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.01630142841118337</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.009379421255595034</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01282751494994127</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.01401541227086858</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.01477139957298479</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01400064995943038</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01298531377067572</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0108524617601145</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0112399428868836</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.007099392903314261</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.01177043036471075</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01031157765914057</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.007973402459829672</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.01339376508875476</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.01207493508058582</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.008055895464401417</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.01687955510641864</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.009783796605572406</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.01274768145025923</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.01415439278975504</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01482750037378461</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01423296789095931</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01267478434409415</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.01269989257643071</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.01174003431826851</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.007202061907788798</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0115604987570805</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.01060706691767892</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.007904560722886346</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.01397442386818662</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.01164829380578425</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.007774435446925862</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.01783471084914556</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0100013800658284</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.01287561788997841</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.01342659841733678</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01469304514180799</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01423959929809624</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.01242068601693013</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.01200858938346982</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01205409295055581</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.007519048998056455</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.01179690154688287</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.01025105259002809</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.008602077531816757</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0136292063215832</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.01204904723674297</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.007741828163112688</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.01792575199186282</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01069558374247334</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01353920761172275</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01290230795968531</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01514787796980828</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01347190897102135</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01208640985246095</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.012414272442081</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01159613743104033</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.008524287961308295</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01218767732654997</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.01034359590342118</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.008494835186465684</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0128463993915817</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.01158387762151342</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.006323003890438232</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.01769907538031184</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.009896405654098495</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01362855110467902</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01300952946851149</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0147614304698133</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01358569836529316</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01222256109447876</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0121068177158981</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.01235861276473918</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.008096317102634346</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01211207285377769</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.01035625431148206</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.008121049171059498</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01279364817931613</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.01117621257275359</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.00627788158015695</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.01656775163610417</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.009976883746925423</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0123448158231996</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01281798980919891</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01480449507067128</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01409004635563001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01268035568175997</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.01130089895301233</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01209565981774413</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.008526855483077928</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01145792665734164</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.01042756120456008</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.007477398098222292</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.01214372747433825</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.01068476930121657</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.005915930985931239</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.01725103316026157</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01108191204067578</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01268080482626223</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.01268171880062457</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.01481414040187272</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.01239361951269807</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01323838845797114</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.01172088736149924</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.01247132934457006</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.008921465643770273</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0116123995677842</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.01040480689624069</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.007085097450212492</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.01263611660918085</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.01036446819852901</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.007082827616833738</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.01775546936843409</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.01099061528487178</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01274505953187327</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01196665901383464</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0155306889469077</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01236247589257194</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01334155900218847</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.01238594794976994</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01270118362063278</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.008356003306749295</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.01233519740174844</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.01055810141268441</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.007280991490030275</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.01224397701019926</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.01004165203756757</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.007616124329395763</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.01691780804735571</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.01178170307472707</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01288587956186879</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.01173007230248812</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01562330037588961</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.01204558890696161</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01180150208924905</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.01315711122994938</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.01285136304816711</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.007380506813448543</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0115011960967182</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.01080433389910745</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.007025038004081175</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.01149994187131256</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.009875720401160484</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.007601045196267678</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.01657453302316298</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.01220694043229603</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0134518605451376</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01179048705490054</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.01460315633152934</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01163271926538982</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01129764173278242</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0136205138649498</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.01278633860818116</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.007426174078035632</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0122535548725586</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01040747964090996</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.006189868913784517</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.01130375923432135</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.01058102450359684</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.007627480718344438</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.01683127479539431</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.01119874856188056</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01393045816922091</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01219291500665097</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0144436161117609</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01160261356921777</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01148903156954665</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.01263545787897505</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.01317920671706677</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.007224536315199096</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.01137666474770892</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.01054328219525031</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.006233044516641762</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.01239597044140182</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.01001906988565792</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.00729592805563849</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.01607468675867698</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.009889804130451315</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01331508844851391</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01265887017369904</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01446145066293462</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01169346915967505</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01214991936247193</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.01278054053588783</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.012918454445465</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.00586042914403606</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.01051338103037972</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.01029373692799077</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.006081824134644699</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.01204712911123302</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.009324660047310043</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.008138516429491777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>